--- a/Test Cases/Excersie1.xlsx
+++ b/Test Cases/Excersie1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
   <si>
     <t xml:space="preserve">Test Scenario </t>
   </si>
@@ -589,9 +589,6 @@
     <t>sssssssssss</t>
   </si>
   <si>
-    <t>Should raise an error</t>
-  </si>
-  <si>
     <t>As per expected result</t>
   </si>
   <si>
@@ -816,6 +813,12 @@
   </si>
   <si>
     <t>Test case  Name:- when user only press sign in button, error message appears.</t>
+  </si>
+  <si>
+    <t>Username should be displayed in username textbox</t>
+  </si>
+  <si>
+    <t>No input</t>
   </si>
 </sst>
 </file>
@@ -917,9 +920,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,105 +1303,105 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>444444</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1415,7 +1418,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,214 +1432,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,120 +1666,120 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1786,19 +1789,19 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1806,16 +1809,16 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1829,177 +1832,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="38.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="38.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>3</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2013,176 +2016,176 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="38.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="38.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="D14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>3</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2196,176 +2199,172 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="38.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="38.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="E15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>39</v>
       </c>
     </row>
